--- a/biology/Biologie cellulaire et moléculaire/ADAMTS7/ADAMTS7.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ADAMTS7/ADAMTS7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">ADAMTS7 (en:« a disintegrin and metalloproteinase with thrombospondin motifs - 7 ») est une protéine jouant un rôle de peptidase et appartenant à la famille des ADAMTS.
-Son gène est le ADAMTS7 situé sur le chromosome 15 humain. Il peut être épissé différemment, la protéine complète étant l'ADAMTS7B qui se fixe sur le sulfate de chondroïtine le transformant en une protéoglycane[5].
+Son gène est le ADAMTS7 situé sur le chromosome 15 humain. Il peut être épissé différemment, la protéine complète étant l'ADAMTS7B qui se fixe sur le sulfate de chondroïtine le transformant en une protéoglycane.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il contribue à la dégradation de la matrice protéique des cartilages[6]. Il inactive également le GEP (« granulin-epithelin precursor »), ce dernier étant un facteur de croissance du cartilage[7].
-Au niveau vasculaire, il facilite la dégradation de la matrice protéique permettant une cicatrisation du vaisseau en aidant à la migration des cellules musculaires (muscle lisse de la media (artère) et à la prolifération de l'intima[8]. Par ce biais, il pourrait faciliter la formation de l'athérome[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il contribue à la dégradation de la matrice protéique des cartilages. Il inactive également le GEP (« granulin-epithelin precursor »), ce dernier étant un facteur de croissance du cartilage.
+Au niveau vasculaire, il facilite la dégradation de la matrice protéique permettant une cicatrisation du vaisseau en aidant à la migration des cellules musculaires (muscle lisse de la media (artère) et à la prolifération de l'intima. Par ce biais, il pourrait faciliter la formation de l'athérome.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains allèles du gène sont corrélées avec le risque de survenue de maladies cardio-vasculaires[10]. Le tabagisme renforce l'expression du gène, et pourrait, par ce biais, favoriser l'athérome[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains allèles du gène sont corrélées avec le risque de survenue de maladies cardio-vasculaires. Le tabagisme renforce l'expression du gène, et pourrait, par ce biais, favoriser l'athérome.
 </t>
         </is>
       </c>
